--- a/test-output/Config_Spreadsheet.xlsx
+++ b/test-output/Config_Spreadsheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="102">
   <si>
     <t>START_TIME</t>
   </si>
@@ -272,6 +272,60 @@
   </si>
   <si>
     <t>15554</t>
+  </si>
+  <si>
+    <t>05/21/2025 19:12:33</t>
+  </si>
+  <si>
+    <t>05/21/2025 19:12:49</t>
+  </si>
+  <si>
+    <t>15768</t>
+  </si>
+  <si>
+    <t>05/21/2025 19:13:01</t>
+  </si>
+  <si>
+    <t>05/21/2025 19:13:16</t>
+  </si>
+  <si>
+    <t>15219</t>
+  </si>
+  <si>
+    <t>05/21/2025 19:13:20</t>
+  </si>
+  <si>
+    <t>05/21/2025 19:13:36</t>
+  </si>
+  <si>
+    <t>15194</t>
+  </si>
+  <si>
+    <t>05/26/2025 17:22:07</t>
+  </si>
+  <si>
+    <t>05/26/2025 17:22:23</t>
+  </si>
+  <si>
+    <t>15721</t>
+  </si>
+  <si>
+    <t>05/26/2025 17:22:34</t>
+  </si>
+  <si>
+    <t>05/26/2025 17:22:49</t>
+  </si>
+  <si>
+    <t>15227</t>
+  </si>
+  <si>
+    <t>05/26/2025 17:22:51</t>
+  </si>
+  <si>
+    <t>05/26/2025 17:23:07</t>
+  </si>
+  <si>
+    <t>15168</t>
   </si>
 </sst>
 </file>
@@ -279,7 +333,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -319,6 +373,36 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -482,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -514,6 +598,12 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,53 +961,53 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="28">
+      <c r="A2" t="s" s="34">
         <v>10</v>
       </c>
-      <c r="B2" t="s" s="28">
-        <v>75</v>
-      </c>
-      <c r="C2" t="s" s="28">
-        <v>76</v>
-      </c>
-      <c r="D2" t="s" s="28">
-        <v>77</v>
-      </c>
-      <c r="E2" t="s" s="28">
+      <c r="B2" t="s" s="34">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s" s="34">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s" s="34">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s" s="34">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="29">
+      <c r="A3" t="s" s="35">
         <v>14</v>
       </c>
-      <c r="B3" t="s" s="29">
-        <v>78</v>
-      </c>
-      <c r="C3" t="s" s="29">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s" s="29">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s" s="29">
+      <c r="B3" t="s" s="35">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s" s="35">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s" s="35">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s" s="35">
         <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="30">
+      <c r="A4" t="s" s="36">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="30">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s" s="30">
-        <v>82</v>
-      </c>
-      <c r="D4" t="s" s="30">
-        <v>83</v>
-      </c>
-      <c r="E4" t="s" s="30">
+      <c r="B4" t="s" s="36">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s" s="36">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s" s="36">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s" s="36">
         <v>5</v>
       </c>
     </row>
